--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44271,6 +44271,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44308,6 +44308,41 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44343,6 +44343,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44380,6 +44380,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44417,6 +44417,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44452,6 +44452,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44489,6 +44489,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44526,6 +44526,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44563,6 +44563,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44600,6 +44600,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44637,6 +44637,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44674,6 +44674,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44711,6 +44711,80 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44785,6 +44785,78 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44857,6 +44857,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44894,6 +44894,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44929,6 +44929,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44966,6 +44966,43 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45003,6 +45003,78 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45075,6 +45075,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45112,6 +45112,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1884"/>
+  <dimension ref="A1:I1885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67864,6 +67864,43 @@
         </is>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1885" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1885"/>
+  <dimension ref="A1:I1886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67901,6 +67901,43 @@
         </is>
       </c>
     </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1886" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1886"/>
+  <dimension ref="A1:I1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67938,6 +67938,43 @@
         </is>
       </c>
     </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1887" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1887"/>
+  <dimension ref="A1:I1888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67975,6 +67975,43 @@
         </is>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1888" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1888"/>
+  <dimension ref="A1:I1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68012,6 +68012,43 @@
         </is>
       </c>
     </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1889" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1889"/>
+  <dimension ref="A1:I1890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68049,6 +68049,43 @@
         </is>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1890" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1890"/>
+  <dimension ref="A1:I1891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68086,6 +68086,43 @@
         </is>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1891" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1891"/>
+  <dimension ref="A1:I1892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68123,6 +68123,41 @@
         </is>
       </c>
     </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1892" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1892"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68158,6 +68158,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1893" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1893"/>
+  <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68195,6 +68195,43 @@
         </is>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1894" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1894"/>
+  <dimension ref="A1:I1895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68232,6 +68232,43 @@
         </is>
       </c>
     </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1895" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1895"/>
+  <dimension ref="A1:I1896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68269,6 +68269,41 @@
         </is>
       </c>
     </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1896"/>
+  <dimension ref="A1:I1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68304,6 +68304,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1897" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1897"/>
+  <dimension ref="A1:I1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68341,6 +68341,41 @@
         </is>
       </c>
     </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1898" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1898"/>
+  <dimension ref="A1:I1899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68376,6 +68376,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1899" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2705"/>
+  <dimension ref="A1:I2706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96621,6 +96621,43 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2706" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2706" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2706" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2706"/>
+  <dimension ref="A1:I2707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96658,6 +96658,43 @@
         </is>
       </c>
     </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2707" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2707" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2707" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2707"/>
+  <dimension ref="A1:I2708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96695,6 +96695,41 @@
         </is>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2708" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2708" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2708" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2708" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2708" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2708"/>
+  <dimension ref="A1:I2709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96730,6 +96730,41 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="2709">
+      <c r="A2709" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2709" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2709" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2709" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2709" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2709" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2709"/>
+  <dimension ref="A1:I2710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96765,6 +96765,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2710">
+      <c r="A2710" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2710" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2710" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2710" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2710" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2710" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2710"/>
+  <dimension ref="A1:I2711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96800,6 +96800,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2711">
+      <c r="A2711" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2711" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2711" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2711" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2711" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2711" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2711"/>
+  <dimension ref="A1:I2712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96837,6 +96837,43 @@
         </is>
       </c>
     </row>
+    <row r="2712">
+      <c r="A2712" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2712" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2712" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2712" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2712" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2712" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2712" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2712"/>
+  <dimension ref="A1:I2713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96874,6 +96874,41 @@
         </is>
       </c>
     </row>
+    <row r="2713">
+      <c r="A2713" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2713" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2713" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2713" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2713" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2713" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2713" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2713"/>
+  <dimension ref="A1:I2714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96909,6 +96909,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2714">
+      <c r="A2714" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2714" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2714" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2714" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2714" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2714" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2714" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2714"/>
+  <dimension ref="A1:I2715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96946,6 +96946,41 @@
         </is>
       </c>
     </row>
+    <row r="2715">
+      <c r="A2715" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2715" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2715" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2715" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2715" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2715" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2715" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2715"/>
+  <dimension ref="A1:I2717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96981,6 +96981,80 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="2716">
+      <c r="A2716" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2716" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2716" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2716" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2716" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2716" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2716" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2717" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2717" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2717" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2717" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2717" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2717"/>
+  <dimension ref="A1:I2718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97055,6 +97055,43 @@
         </is>
       </c>
     </row>
+    <row r="2718">
+      <c r="A2718" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2718" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2718" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2718" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2718" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2718" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2718" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2718"/>
+  <dimension ref="A1:I2721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97092,6 +97092,117 @@
         </is>
       </c>
     </row>
+    <row r="2719">
+      <c r="A2719" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2719" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2719" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2719" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2719" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2719" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2719" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2720" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2720" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2720" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2720" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2721" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2721" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2721" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2721" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2721"/>
+  <dimension ref="A1:I2722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97203,6 +97203,43 @@
         </is>
       </c>
     </row>
+    <row r="2722">
+      <c r="A2722" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2722" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2722" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2722" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2722" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2722"/>
+  <dimension ref="A1:I2723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97240,6 +97240,43 @@
         </is>
       </c>
     </row>
+    <row r="2723">
+      <c r="A2723" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2723" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2723" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2723" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2723" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5081.xlsx
+++ b/data/5081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2723"/>
+  <dimension ref="A1:I2726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97277,6 +97277,117 @@
         </is>
       </c>
     </row>
+    <row r="2724">
+      <c r="A2724" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2724" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2724" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2724" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2724" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2724" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2725" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2725" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2725" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2725" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2725" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2725" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>5081</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr">
+        <is>
+          <t>EIG</t>
+        </is>
+      </c>
+      <c r="E2726" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2726" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2726" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2726" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2726" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
